--- a/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
+++ b/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Dropbox\HSLU\CIP_DataCollection_Integration_Preprocessing\Gruppenarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Documents\GitHub\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CAE699-7625-4A48-A29B-989A17F77773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFB45CC-A778-44B5-B1E1-16C0D4B456C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Zeit CIP Projekt</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Gruppendiskussion &amp; Projektplan überarbeiten</t>
+  </si>
+  <si>
+    <t>Gruppendiskussion &amp; Crawler Rankings erstellen</t>
+  </si>
+  <si>
+    <t>Tableau Prep mit Luca</t>
+  </si>
+  <si>
+    <t>Entwurf Tableau Prep</t>
+  </si>
+  <si>
+    <t>Gruppencall, Arbeit an Crawler</t>
+  </si>
+  <si>
+    <t>ETL Automatisierung lernen</t>
   </si>
 </sst>
 </file>
@@ -428,20 +443,20 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -452,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -463,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -474,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -485,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -496,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43900</v>
       </c>
@@ -507,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -518,13 +533,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
         <f>SUM(B4:B30)</f>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
+++ b/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Documents\GitHub\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFB45CC-A778-44B5-B1E1-16C0D4B456C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A610D68-C40C-4BE5-A6B3-4B1AEA1E3CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Zeit CIP Projekt</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +588,24 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
         <f>SUM(B4:B30)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
+++ b/arbeitszeit/Zeiterfassung_Carole_Mattmann.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaroleM\Documents\GitHub\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A610D68-C40C-4BE5-A6B3-4B1AEA1E3CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2ED33-EA2F-467D-BAC2-A411B6ABECF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Zeit CIP Projekt</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>ETL Automatisierung lernen</t>
+  </si>
+  <si>
+    <t>Tableau Prep anschauen, Crawler finalisieren und dokumentieren</t>
   </si>
 </sst>
 </file>
@@ -443,12 +446,12 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,13 +602,24 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
         <f>SUM(B4:B30)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
